--- a/data/trans_orig/Q57-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Provincia-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la autopercepción de felicidad</t>
+          <t>Puntuación media de la autopercepción de felicidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>7,93</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 8,07</t>
+          <t>7,87; 8,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,93</t>
+          <t>7,78; 7,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 7,97</t>
+          <t>7,85; 8,0</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 9,13</t>
+          <t>8,81; 9,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>7,9</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,21</t>
+          <t>7,79; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,96</t>
+          <t>7,64; 7,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,01</t>
+          <t>7,76; 8,03</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 8,21</t>
+          <t>7,83; 8,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 8,15</t>
+          <t>7,87; 8,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,14</t>
+          <t>7,92; 8,13</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>8,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 8,34</t>
+          <t>8,06; 8,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 8,25</t>
+          <t>8,01; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 8,27</t>
+          <t>8,08; 8,26</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,94</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,15</t>
+          <t>7,73; 8,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 8,07</t>
+          <t>7,79; 8,08</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>7,94</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,31</t>
+          <t>8,03; 8,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,04</t>
+          <t>7,37; 8,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 8,11</t>
+          <t>7,58; 8,12</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,65</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,62; 8,03</t>
+          <t>7,65; 8,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,32</t>
+          <t>7,01; 7,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,62</t>
+          <t>7,39; 8,16</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,2</t>
+          <t>8,12; 8,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,93</t>
+          <t>7,69; 7,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,04</t>
+          <t>7,93; 8,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q57-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Provincia-trans_orig.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,66</t>
+          <t>7,17; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,44</t>
+          <t>6,97; 7,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,19 +659,19 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,49</t>
+          <t>7,16; 7,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 8,0</t>
+          <t>7,85; 8,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,02</t>
+          <t>7,77; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 9,13</t>
+          <t>8,8; 9,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 7,96</t>
+          <t>7,72; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 8,91</t>
+          <t>8,66; 8,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 8,98</t>
+          <t>8,78; 8,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 8,11</t>
+          <t>7,88; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 8,24</t>
+          <t>7,78; 8,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,17 +814,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,96</t>
+          <t>7,62; 7,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,96</t>
+          <t>7,75; 7,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 8,03</t>
+          <t>7,76; 8,04</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,06</t>
+          <t>7,71; 8,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 8,22</t>
+          <t>7,85; 8,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,67</t>
+          <t>7,22; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 8,13</t>
+          <t>7,86; 8,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,81</t>
+          <t>7,53; 7,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 8,13</t>
+          <t>7,91; 8,12</t>
         </is>
       </c>
     </row>
@@ -959,39 +959,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,23</t>
+          <t>6,75; 7,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 8,33</t>
+          <t>8,07; 8,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 6,95</t>
+          <t>6,54; 6,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 8,24</t>
+          <t>8,01; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 7,03</t>
+          <t>6,69; 7,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 8,26</t>
+          <t>8,07; 8,25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 8,22</t>
+          <t>7,83; 8,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 8,18</t>
+          <t>7,75; 8,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,91</t>
+          <t>7,42; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,11</t>
+          <t>7,69; 8,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,02</t>
+          <t>7,68; 8,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,79; 8,08</t>
+          <t>7,81; 8,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 7,84</t>
+          <t>7,62; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,33</t>
+          <t>8,05; 8,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,03</t>
+          <t>7,32; 8,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,72</t>
+          <t>7,55; 7,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,58; 8,12</t>
+          <t>7,52; 8,12</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,55</t>
+          <t>7,34; 7,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,65; 8,56</t>
+          <t>7,64; 8,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,28</t>
+          <t>7,01; 7,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,16</t>
+          <t>7,38; 8,15</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1289,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,38; 7,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,93</t>
+          <t>7,7; 7,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,93; 8,12</t>
+          <t>7,95; 8,13</t>
         </is>
       </c>
     </row>
